--- a/Session2/Assignment2.xlsx
+++ b/Session2/Assignment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\SchoolOfAI\Session2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37372B07-A8AB-44F8-987D-4150511AB50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369085EA-CA5C-4AD3-893D-9861A7FB9F4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F668AFFC-8EE8-4514-B1FF-96B1859AD1F0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>E1</t>
   </si>
@@ -645,6 +645,9 @@
   <si>
     <t>Iteration</t>
   </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
 </sst>
 </file>
 
@@ -652,7 +655,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -873,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -894,12 +897,15 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7118,7 +7124,7 @@
   <dimension ref="A2:AG101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7135,23 +7141,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
       <c r="L2" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
     </row>
     <row r="4" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
@@ -7403,7 +7421,7 @@
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
     </row>
-    <row r="14" spans="2:25" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -7853,7 +7871,7 @@
         <f>0.5*(B27-T27)^2</f>
         <v>6.4627014839136757E-2</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="22">
         <f>U27+V27</f>
         <v>0.24251985734837728</v>
       </c>
@@ -7983,7 +8001,7 @@
         <f>0.5*(B28-T28)^2</f>
         <v>6.2829642321372406E-2</v>
       </c>
-      <c r="W28" s="23">
+      <c r="W28" s="22">
         <f>U28+V28</f>
         <v>0.23549537787349017</v>
       </c>
@@ -8113,7 +8131,7 @@
         <f t="shared" ref="V29:V68" si="19">0.5*(B29-T29)^2</f>
         <v>6.1102080458226654E-2</v>
       </c>
-      <c r="W29" s="23">
+      <c r="W29" s="22">
         <f t="shared" ref="W29:W68" si="20">U29+V29</f>
         <v>0.22862020600870744</v>
       </c>
@@ -8243,7 +8261,7 @@
         <f t="shared" si="19"/>
         <v>5.944136059297133E-2</v>
       </c>
-      <c r="W30" s="23">
+      <c r="W30" s="22">
         <f t="shared" si="20"/>
         <v>0.22189935290057158</v>
       </c>
@@ -8373,7 +8391,7 @@
         <f t="shared" si="19"/>
         <v>5.7844615194249167E-2</v>
       </c>
-      <c r="W31" s="23">
+      <c r="W31" s="22">
         <f t="shared" si="20"/>
         <v>0.21533724355706674</v>
       </c>
@@ -8503,7 +8521,7 @@
         <f t="shared" si="19"/>
         <v>5.6309079904021196E-2</v>
       </c>
-      <c r="W32" s="23">
+      <c r="W32" s="22">
         <f t="shared" si="20"/>
         <v>0.20893767274108918</v>
       </c>
@@ -8633,7 +8651,7 @@
         <f t="shared" si="19"/>
         <v>5.4832094497802512E-2</v>
       </c>
-      <c r="W33" s="23">
+      <c r="W33" s="22">
         <f t="shared" si="20"/>
         <v>0.202703773668297</v>
       </c>
@@ -8763,7 +8781,7 @@
         <f t="shared" si="19"/>
         <v>5.3411102924850205E-2</v>
       </c>
-      <c r="W34" s="23">
+      <c r="W34" s="22">
         <f t="shared" si="20"/>
         <v>0.19663799959953079</v>
       </c>
@@ -8893,7 +8911,7 @@
         <f t="shared" si="19"/>
         <v>5.2043652578708473E-2</v>
       </c>
-      <c r="W35" s="23">
+      <c r="W35" s="22">
         <f t="shared" si="20"/>
         <v>0.1907421179707893</v>
       </c>
@@ -9023,7 +9041,7 @@
         <f t="shared" si="19"/>
         <v>5.0727392931948917E-2</v>
       </c>
-      <c r="W36" s="23">
+      <c r="W36" s="22">
         <f t="shared" si="20"/>
         <v>0.18501721631430007</v>
       </c>
@@ -9153,7 +9171,7 @@
         <f t="shared" si="19"/>
         <v>4.9460073653288944E-2</v>
       </c>
-      <c r="W37" s="23">
+      <c r="W37" s="22">
         <f t="shared" si="20"/>
         <v>0.1794637189063516</v>
       </c>
@@ -9283,7 +9301,7 @@
         <f t="shared" si="19"/>
         <v>4.8239542310670007E-2</v>
       </c>
-      <c r="W38" s="23">
+      <c r="W38" s="22">
         <f t="shared" si="20"/>
         <v>0.17408141283901166</v>
       </c>
@@ -9413,7 +9431,7 @@
         <f t="shared" si="19"/>
         <v>4.7063741750413807E-2</v>
       </c>
-      <c r="W39" s="23">
+      <c r="W39" s="22">
         <f t="shared" si="20"/>
         <v>0.16886948205556535</v>
       </c>
@@ -9543,7 +9561,7 @@
         <f t="shared" si="19"/>
         <v>4.5930707230279103E-2</v>
       </c>
-      <c r="W40" s="23">
+      <c r="W40" s="22">
         <f t="shared" si="20"/>
         <v>0.1638265478102261</v>
       </c>
@@ -9673,7 +9691,7 @@
         <f t="shared" si="19"/>
         <v>4.4838563373125133E-2</v>
       </c>
-      <c r="W41" s="23">
+      <c r="W41" s="22">
         <f t="shared" si="20"/>
         <v>0.15895071400404875</v>
       </c>
@@ -9803,7 +9821,7 @@
         <f t="shared" si="19"/>
         <v>4.3785520997905641E-2</v>
       </c>
-      <c r="W42" s="23">
+      <c r="W42" s="22">
         <f t="shared" si="20"/>
         <v>0.1542396159006717</v>
       </c>
@@ -9933,7 +9951,7 @@
         <f t="shared" si="19"/>
         <v>4.276987387583938E-2</v>
       </c>
-      <c r="W43" s="23">
+      <c r="W43" s="22">
         <f t="shared" si="20"/>
         <v>0.14969047082553455</v>
       </c>
@@ -10063,7 +10081,7 @@
         <f t="shared" si="19"/>
         <v>4.1789995451750439E-2</v>
       </c>
-      <c r="W44" s="23">
+      <c r="W44" s="22">
         <f t="shared" si="20"/>
         <v>0.14530012958791491</v>
       </c>
@@ -10193,7 +10211,7 @@
         <f t="shared" si="19"/>
         <v>4.0844335563684823E-2</v>
       </c>
-      <c r="W45" s="23">
+      <c r="W45" s="22">
         <f t="shared" si="20"/>
         <v>0.1410651275242675</v>
       </c>
@@ -10323,7 +10341,7 @@
         <f t="shared" si="19"/>
         <v>3.9931417187906208E-2</v>
       </c>
-      <c r="W46" s="23">
+      <c r="W46" s="22">
         <f t="shared" si="20"/>
         <v>0.13698173423274129</v>
       </c>
@@ -10453,7 +10471,7 @@
         <f t="shared" si="19"/>
         <v>3.9049833231172941E-2</v>
       </c>
-      <c r="W47" s="23">
+      <c r="W47" s="22">
         <f t="shared" si="20"/>
         <v>0.13304600124279031</v>
       </c>
@@ -10583,7 +10601,7 @@
         <f t="shared" si="19"/>
         <v>3.819824338772821E-2</v>
       </c>
-      <c r="W48" s="23">
+      <c r="W48" s="22">
         <f t="shared" si="20"/>
         <v>0.12925380703270212</v>
       </c>
@@ -10713,7 +10731,7 @@
         <f t="shared" si="19"/>
         <v>3.7375371074609053E-2</v>
       </c>
-      <c r="W49" s="23">
+      <c r="W49" s="22">
         <f t="shared" si="20"/>
         <v>0.12560089896573273</v>
       </c>
@@ -10843,7 +10861,7 @@
         <f t="shared" si="19"/>
         <v>3.6580000455635857E-2</v>
       </c>
-      <c r="W50" s="23">
+      <c r="W50" s="22">
         <f t="shared" si="20"/>
         <v>0.12208293185828389</v>
       </c>
@@ -10973,7 +10991,7 @@
         <f t="shared" si="19"/>
         <v>3.5810973561702118E-2</v>
       </c>
-      <c r="W51" s="23">
+      <c r="W51" s="22">
         <f t="shared" si="20"/>
         <v>0.11869550301870918</v>
       </c>
@@ -11103,7 +11121,7 @@
         <f t="shared" si="19"/>
         <v>3.506718751269066E-2</v>
       </c>
-      <c r="W52" s="23">
+      <c r="W52" s="22">
         <f t="shared" si="20"/>
         <v>0.11543418370179451</v>
       </c>
@@ -11233,7 +11251,7 @@
         <f t="shared" si="19"/>
         <v>3.4347591844432243E-2</v>
       </c>
-      <c r="W53" s="23">
+      <c r="W53" s="22">
         <f t="shared" si="20"/>
         <v>0.11229454701173039</v>
       </c>
@@ -11363,7 +11381,7 @@
         <f t="shared" si="19"/>
         <v>3.3651185942547471E-2</v>
       </c>
-      <c r="W54" s="23">
+      <c r="W54" s="22">
         <f t="shared" si="20"/>
         <v>0.10927219235630757</v>
       </c>
@@ -11493,7 +11511,7 @@
         <f t="shared" si="19"/>
         <v>3.297701658372415E-2</v>
       </c>
-      <c r="W55" s="23">
+      <c r="W55" s="22">
         <f t="shared" si="20"/>
         <v>0.10636276660852687</v>
       </c>
@@ -11623,7 +11641,7 @@
         <f t="shared" si="19"/>
         <v>3.232417558393634E-2</v>
       </c>
-      <c r="W56" s="23">
+      <c r="W56" s="22">
         <f t="shared" si="20"/>
         <v>0.10356198217058328</v>
       </c>
@@ -11753,7 +11771,7 @@
         <f t="shared" si="19"/>
         <v>3.1691797552277925E-2</v>
       </c>
-      <c r="W57" s="23">
+      <c r="W57" s="22">
         <f t="shared" si="20"/>
         <v>0.1008656321612144</v>
       </c>
@@ -11883,7 +11901,7 @@
         <f t="shared" si="19"/>
         <v>3.107905774842127E-2</v>
       </c>
-      <c r="W58" s="23">
+      <c r="W58" s="22">
         <f t="shared" si="20"/>
         <v>9.8269602962661323E-2</v>
       </c>
@@ -12013,7 +12031,7 @@
         <f t="shared" si="19"/>
         <v>3.0485170041199498E-2</v>
       </c>
-      <c r="W59" s="23">
+      <c r="W59" s="22">
         <f t="shared" si="20"/>
         <v>9.5769884369911337E-2</v>
       </c>
@@ -12143,7 +12161,7 @@
         <f t="shared" si="19"/>
         <v>2.9909384965424956E-2</v>
       </c>
-      <c r="W60" s="23">
+      <c r="W60" s="22">
         <f t="shared" si="20"/>
         <v>9.3362577584248513E-2</v>
       </c>
@@ -12273,7 +12291,7 @@
         <f t="shared" si="19"/>
         <v>2.9350987873768063E-2</v>
       </c>
-      <c r="W61" s="23">
+      <c r="W61" s="22">
         <f t="shared" si="20"/>
         <v>9.10439012870356E-2</v>
       </c>
@@ -12403,7 +12421,7 @@
         <f t="shared" si="19"/>
         <v>2.880929718032391E-2</v>
       </c>
-      <c r="W62" s="23">
+      <c r="W62" s="22">
         <f t="shared" si="20"/>
         <v>8.881019601950367E-2</v>
       </c>
@@ -12533,7 +12551,7 @@
         <f t="shared" si="19"/>
         <v>2.8283662692362831E-2</v>
       </c>
-      <c r="W63" s="23">
+      <c r="W63" s="22">
         <f t="shared" si="20"/>
         <v>8.6657927081316213E-2</v>
       </c>
@@ -12663,7 +12681,7 @@
         <f t="shared" si="19"/>
         <v>2.7773464026690117E-2</v>
       </c>
-      <c r="W64" s="23">
+      <c r="W64" s="22">
         <f t="shared" si="20"/>
         <v>8.4583686145816447E-2</v>
       </c>
@@ -12793,7 +12811,7 @@
         <f t="shared" si="19"/>
         <v>2.7278109107014146E-2</v>
       </c>
-      <c r="W65" s="23">
+      <c r="W65" s="22">
         <f t="shared" si="20"/>
         <v>8.2584191773960688E-2</v>
       </c>
@@ -12923,7 +12941,7 @@
         <f t="shared" si="19"/>
         <v>2.6797032738734863E-2</v>
       </c>
-      <c r="W66" s="23">
+      <c r="W66" s="22">
         <f t="shared" si="20"/>
         <v>8.0656288992637284E-2</v>
       </c>
@@ -13053,7 +13071,7 @@
         <f t="shared" si="19"/>
         <v>2.6329695257605701E-2</v>
       </c>
-      <c r="W67" s="23">
+      <c r="W67" s="22">
         <f t="shared" si="20"/>
         <v>7.8796948086864632E-2</v>
       </c>
@@ -13183,7 +13201,7 @@
         <f t="shared" si="19"/>
         <v>2.5875581248789057E-2</v>
       </c>
-      <c r="W68" s="23">
+      <c r="W68" s="22">
         <f t="shared" si="20"/>
         <v>7.7003262739623934E-2</v>
       </c>
@@ -13313,7 +13331,7 @@
         <f t="shared" ref="V69:V101" si="44">0.5*(B69-T69)^2</f>
         <v>2.5434198332906846E-2</v>
       </c>
-      <c r="W69" s="23">
+      <c r="W69" s="22">
         <f t="shared" ref="W69:W101" si="45">U69+V69</f>
         <v>7.5272447638079221E-2</v>
       </c>
@@ -13443,7 +13461,7 @@
         <f t="shared" si="44"/>
         <v>2.500507601578647E-2</v>
       </c>
-      <c r="W70" s="23">
+      <c r="W70" s="22">
         <f t="shared" si="45"/>
         <v>7.3601835650846686E-2</v>
       </c>
@@ -13573,7 +13591,7 @@
         <f t="shared" si="44"/>
         <v>2.45877645987101E-2</v>
       </c>
-      <c r="W71" s="23">
+      <c r="W71" s="22">
         <f t="shared" si="45"/>
         <v>7.1988874667910402E-2</v>
       </c>
@@ -13703,7 +13721,7 @@
         <f t="shared" si="44"/>
         <v>2.4181834146087339E-2</v>
       </c>
-      <c r="W72" s="23">
+      <c r="W72" s="22">
         <f t="shared" si="45"/>
         <v>7.0431124182790114E-2</v>
       </c>
@@ -13833,7 +13851,7 @@
         <f t="shared" si="44"/>
         <v>2.3786873507592916E-2</v>
       </c>
-      <c r="W73" s="23">
+      <c r="W73" s="22">
         <f t="shared" si="45"/>
         <v>6.8926251685671264E-2</v>
       </c>
@@ -13963,7 +13981,7 @@
         <f t="shared" si="44"/>
         <v>2.3402489391931063E-2</v>
       </c>
-      <c r="W74" s="23">
+      <c r="W74" s="22">
         <f t="shared" si="45"/>
         <v>6.7472028926383057E-2</v>
       </c>
@@ -14093,7 +14111,7 @@
         <f t="shared" si="44"/>
         <v>2.302830548951015E-2</v>
       </c>
-      <c r="W75" s="23">
+      <c r="W75" s="22">
         <f t="shared" si="45"/>
         <v>6.6066328097317314E-2</v>
       </c>
@@ -14223,7 +14241,7 @@
         <f t="shared" si="44"/>
         <v>2.2663961641435026E-2</v>
       </c>
-      <c r="W76" s="23">
+      <c r="W76" s="22">
         <f t="shared" si="45"/>
         <v>6.4707117978568679E-2</v>
       </c>
@@ -14353,7 +14371,7 @@
         <f t="shared" si="44"/>
         <v>2.2309113052343239E-2</v>
       </c>
-      <c r="W77" s="23">
+      <c r="W77" s="22">
         <f t="shared" si="45"/>
         <v>6.3392460080671981E-2</v>
       </c>
@@ -14483,7 +14501,7 @@
         <f t="shared" si="44"/>
         <v>2.1963429544730725E-2</v>
       </c>
-      <c r="W78" s="23">
+      <c r="W78" s="22">
         <f t="shared" si="45"/>
         <v>6.2120504814250833E-2</v>
       </c>
@@ -14613,7 +14631,7 @@
         <f t="shared" si="44"/>
         <v>2.1626594852528637E-2</v>
       </c>
-      <c r="W79" s="23">
+      <c r="W79" s="22">
         <f t="shared" si="45"/>
         <v>6.0889487710597386E-2</v>
       </c>
@@ -14743,7 +14761,7 @@
         <f t="shared" si="44"/>
         <v>2.1298305951803348E-2</v>
       </c>
-      <c r="W80" s="23">
+      <c r="W80" s="22">
         <f t="shared" si="45"/>
         <v>5.9697725712602359E-2</v>
       </c>
@@ -14873,7 +14891,7 @@
         <f t="shared" si="44"/>
         <v>2.0978272426563097E-2</v>
       </c>
-      <c r="W81" s="23">
+      <c r="W81" s="22">
         <f t="shared" si="45"/>
         <v>5.8543613551482084E-2</v>
       </c>
@@ -15003,7 +15021,7 @@
         <f t="shared" si="44"/>
         <v>2.066621586775674E-2</v>
       </c>
-      <c r="W82" s="23">
+      <c r="W82" s="22">
         <f t="shared" si="45"/>
         <v>5.7425620221331478E-2</v>
       </c>
@@ -15133,7 +15151,7 @@
         <f t="shared" si="44"/>
         <v>2.036186930365216E-2</v>
       </c>
-      <c r="W83" s="23">
+      <c r="W83" s="22">
         <f t="shared" si="45"/>
         <v>5.6342285560612118E-2</v>
       </c>
@@ -15263,7 +15281,7 @@
         <f t="shared" si="44"/>
         <v>2.0064976659878664E-2</v>
       </c>
-      <c r="W84" s="23">
+      <c r="W84" s="22">
         <f t="shared" si="45"/>
         <v>5.5292216947202572E-2</v>
       </c>
@@ -15393,7 +15411,7 @@
         <f t="shared" si="44"/>
         <v>1.97752922475086E-2</v>
       </c>
-      <c r="W85" s="23">
+      <c r="W85" s="22">
         <f t="shared" si="45"/>
         <v>5.427408611153918E-2</v>
       </c>
@@ -15523,7 +15541,7 @@
         <f t="shared" si="44"/>
         <v>1.9492580277642429E-2</v>
       </c>
-      <c r="W86" s="23">
+      <c r="W86" s="22">
         <f t="shared" si="45"/>
         <v>5.328662607061431E-2</v>
       </c>
@@ -15653,7 +15671,7 @@
         <f t="shared" si="44"/>
         <v>1.9216614401045953E-2</v>
       </c>
-      <c r="W87" s="23">
+      <c r="W87" s="22">
         <f t="shared" si="45"/>
         <v>5.2328628184132218E-2</v>
       </c>
@@ -15783,7 +15801,7 @@
         <f t="shared" si="44"/>
         <v>1.8947177271466654E-2</v>
       </c>
-      <c r="W88" s="23">
+      <c r="W88" s="22">
         <f t="shared" si="45"/>
         <v>5.1398939332906166E-2</v>
       </c>
@@ -15913,7 +15931,7 @@
         <f t="shared" si="44"/>
         <v>1.8684060131333526E-2</v>
       </c>
-      <c r="W89" s="23">
+      <c r="W89" s="22">
         <f t="shared" si="45"/>
         <v>5.0496459218588419E-2</v>
       </c>
@@ -16043,7 +16061,7 @@
         <f t="shared" si="44"/>
         <v>1.8427062418616066E-2</v>
       </c>
-      <c r="W90" s="23">
+      <c r="W90" s="22">
         <f t="shared" si="45"/>
         <v>4.962013778301734E-2</v>
       </c>
@@ -16173,7 +16191,7 @@
         <f t="shared" si="44"/>
         <v>1.8175991393686773E-2</v>
       </c>
-      <c r="W91" s="23">
+      <c r="W91" s="22">
         <f t="shared" si="45"/>
         <v>4.8768972744823585E-2</v>
       </c>
@@ -16303,7 +16321,7 @@
         <f t="shared" si="44"/>
         <v>1.7930661785095468E-2</v>
       </c>
-      <c r="W92" s="23">
+      <c r="W92" s="22">
         <f t="shared" si="45"/>
         <v>4.794200725042988E-2</v>
       </c>
@@ -16433,7 +16451,7 @@
         <f t="shared" si="44"/>
         <v>1.7690895453226368E-2</v>
       </c>
-      <c r="W93" s="23">
+      <c r="W93" s="22">
         <f t="shared" si="45"/>
         <v>4.7138327636192801E-2</v>
       </c>
@@ -16563,7 +16581,7 @@
         <f t="shared" si="44"/>
         <v>1.7456521070865177E-2</v>
       </c>
-      <c r="W94" s="23">
+      <c r="W94" s="22">
         <f t="shared" si="45"/>
         <v>4.6357061298142523E-2</v>
       </c>
@@ -16693,7 +16711,7 @@
         <f t="shared" si="44"/>
         <v>1.7227373819759556E-2</v>
       </c>
-      <c r="W95" s="23">
+      <c r="W95" s="22">
         <f t="shared" si="45"/>
         <v>4.5597374665573884E-2</v>
       </c>
@@ -16823,7 +16841,7 @@
         <f t="shared" si="44"/>
         <v>1.7003295102307237E-2</v>
       </c>
-      <c r="W96" s="23">
+      <c r="W96" s="22">
         <f t="shared" si="45"/>
         <v>4.4858471274603018E-2</v>
       </c>
@@ -16953,7 +16971,7 @@
         <f t="shared" si="44"/>
         <v>1.6784132267555499E-2</v>
       </c>
-      <c r="W97" s="23">
+      <c r="W97" s="22">
         <f t="shared" si="45"/>
         <v>4.4139589937727437E-2</v>
       </c>
@@ -17083,7 +17101,7 @@
         <f t="shared" si="44"/>
         <v>1.6569738350741253E-2</v>
       </c>
-      <c r="W98" s="23">
+      <c r="W98" s="22">
         <f t="shared" si="45"/>
         <v>4.3440003005395855E-2</v>
       </c>
@@ -17213,7 +17231,7 @@
         <f t="shared" si="44"/>
         <v>1.6359971825645098E-2</v>
       </c>
-      <c r="W99" s="23">
+      <c r="W99" s="22">
         <f t="shared" si="45"/>
         <v>4.275901471560356E-2</v>
       </c>
@@ -17343,7 +17361,7 @@
         <f t="shared" si="44"/>
         <v>1.6154696369073174E-2</v>
       </c>
-      <c r="W100" s="23">
+      <c r="W100" s="22">
         <f t="shared" si="45"/>
         <v>4.2095959627569013E-2</v>
       </c>
@@ -17473,7 +17491,7 @@
         <f t="shared" si="44"/>
         <v>1.595378063682008E-2</v>
       </c>
-      <c r="W101" s="23">
+      <c r="W101" s="22">
         <f t="shared" si="45"/>
         <v>4.1450201135613943E-2</v>
       </c>
@@ -17519,8 +17537,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="N2:Y2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17574,22 +17593,22 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>0.24251985734837728</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>0.24251985734837728</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>0.24251985734837728</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>0.24251985734837728</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>0.24251985734837728</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>0.24251985734837728</v>
       </c>
     </row>
@@ -17597,22 +17616,22 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>0.24110903876812873</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>0.23970114342898322</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>0.23549537787349017</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>0.23131728642977417</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>0.22854776527878509</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>0.21490159884256635</v>
       </c>
     </row>
@@ -17620,22 +17639,22 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.23970403156867259</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.23690583912562505</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>0.22862020600870744</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>0.22050429437507871</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>0.2151917513010938</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>0.18987932614400227</v>
       </c>
     </row>
@@ -17643,22 +17662,22 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>0.23830487995320579</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.2341342902068855</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>0.22189935290057158</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>0.21009967584614114</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>0.20248615151693786</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>0.16762535191281996</v>
       </c>
     </row>
@@ -17666,22 +17685,22 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>0.23691162730651111</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.23138682882215905</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>0.21533724355706674</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>0.20011810727964277</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>0.1904549082377793</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>0.14813949508015645</v>
       </c>
     </row>
@@ -17689,22 +17708,22 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>0.23552431617466935</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.22866377289884651</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>0.20893767274108918</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>0.19056984884051159</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>0.17911099514392959</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>0.13127531967647857</v>
       </c>
     </row>
@@ -17712,22 +17731,22 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>0.23414298824548435</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.22596542558768243</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>0.202703773668297</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>0.18146066004951675</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>0.16845661989366126</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>0.11678987307369015</v>
       </c>
     </row>
@@ -17735,22 +17754,22 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>0.23276768432963732</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.22329207475776353</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>0.19663799959953079</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>0.17279191160023272</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>0.15848407315701624</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>0.10439494052893267</v>
       </c>
     </row>
@@ -17758,22 +17777,22 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>0.23139844434258416</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.22064399254252082</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>0.1907421179707893</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>0.16456086243211812</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>0.14917704036336582</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>9.3796722981055E-2</v>
       </c>
     </row>
@@ -17781,22 +17800,22 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>0.23003530728721144</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.21802143493755069</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>0.18501721631430007</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>0.15676106311135191</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>0.14051217886912468</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>8.4720552415379E-2</v>
       </c>
     </row>
@@ -17804,22 +17823,22 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>0.22867831123726023</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.21542464145089724</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>0.1794637189063516</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>0.14938284387826717</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>0.13246078088644664</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>7.6922979976319306E-2</v>
       </c>
     </row>
@@ -17827,22 +17846,22 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>0.22732749332153174</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.21285383480606401</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>0.17408141283901166</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>0.14241384750356204</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>0.12499037939225566</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>7.0195330732966341E-2</v>
       </c>
     </row>
@@ -17850,22 +17869,22 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>0.22598288970888195</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.2103092206977262</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>0.16886948205556535</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>0.13583957209470698</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>0.11806619845238855</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>6.4362398142722599E-2</v>
       </c>
     </row>
@@ -17873,22 +17892,22 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>0.22464453559401529</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.20779098759982209</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>0.1638265478102261</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>0.12964389584905217</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>0.11165239177027833</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>5.9278852389163084E-2</v>
       </c>
     </row>
@@ -17896,22 +17915,22 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>0.22331246518408293</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.2052993066254179</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>0.15895071400404875</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>0.12380956324187031</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>0.10571304830180256</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>5.482491027939574E-2</v>
       </c>
     </row>
@@ -17919,22 +17938,22 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>0.22198671168609313</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.20283433143747986</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>0.1542396159006717</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>0.11831861932755905</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>0.10021296930959503</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>5.0902083513451699E-2</v>
       </c>
     </row>
@@ -17942,22 +17961,22 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>0.22066730729513706</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.20039619820943533</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>0.14969047082553455</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>0.11315278510804333</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>9.5118237483910822E-2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>4.7429372470245534E-2</v>
       </c>
     </row>
@@ -17965,22 +17984,22 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>0.21935428318343375</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.19798502563417694</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>0.14530012958791491</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>0.10829377197312121</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>9.0396607278370303E-2</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>4.4340023833243224E-2</v>
       </c>
     </row>
@@ -17988,22 +18007,22 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>0.21804766949019649</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.19560091497995413</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>0.1410651275242675</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>0.10372353697020928</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>8.6017748415939219E-2</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>4.1578846221857452E-2</v>
       </c>
     </row>
@@ -18011,22 +18030,22 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>0.21674749531232129</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.19324395019140397</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>0.13698173423274129</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>9.9424483204908459E-2</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>8.1953373559056492E-2</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>3.9100024391086813E-2</v>
       </c>
     </row>
@@ -18034,22 +18053,22 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>0.21545378869589749</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.19091419803380841</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>0.13304600124279031</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>9.5379611189992164E-2</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>7.8177278008739776E-2</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>3.6865355889397926E-2</v>
       </c>
     </row>
@@ -18057,22 +18076,22 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>0.214166576628539</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.18861170827851184</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>0.12925380703270212</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>9.1572627665928302E-2</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>7.4665315176863534E-2</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>3.4842835087706754E-2</v>
       </c>
     </row>
@@ -18080,22 +18099,22 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>0.21288588503253308</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.18633651392731257</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>0.12560089896573273</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>8.7988018525968686E-2</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>7.1395327245311377E-2</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>3.3005517883895677E-2</v>
       </c>
     </row>
@@ -18103,22 +18122,22 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>0.21161173875880418</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.18408863147353058</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>0.12208293185828389</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>8.4611092183809494E-2</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>6.8347046350994312E-2</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>3.1330610940849574E-2</v>
       </c>
     </row>
@@ -18126,22 +18145,22 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>0.21034416158168673</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.18186806119737448</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>0.11869550301870918</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>8.1427999177807187E-2</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>6.5501978053987955E-2</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <v>2.9798739612585584E-2</v>
       </c>
     </row>
@@ -18149,22 +18168,22 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>0.20908317619450248</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.17967478749316157</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>0.11543418370179451</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>7.842573313212739E-2</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>6.2843275843365728E-2</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <v>2.839335778028651E-2</v>
       </c>
     </row>
@@ -18172,22 +18191,22 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>0.20782880420593419</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.17750877922590497</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>0.11229454701173039</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>7.5592117477869716E-2</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>6.0355613006611825E-2</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>2.7100270395771342E-2</v>
       </c>
     </row>
@@ -18195,22 +18214,22 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>0.20658106613718943</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>0.17536999011475216</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>0.10927219235630757</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>7.2915781633847751E-2</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>5.8025056280016044E-2</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <v>2.5907245673564741E-2</v>
       </c>
     </row>
@@ -18218,22 +18237,22 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>0.2053399814199442</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>0.17325835914075249</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>0.10636276660852687</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>7.0386129692918964E-2</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>5.5838944234455193E-2</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <v>2.4803698768155375E-2</v>
       </c>
     </row>
@@ -18241,22 +18260,22 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>0.20410556839505828</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>0.1711738109764416</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>0.10356198217058328</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>6.7993304074767918E-2</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>5.3785772254578659E-2</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>2.3780432633831283E-2</v>
       </c>
     </row>
@@ -18264,22 +18283,22 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>0.20287784431205044</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>0.16911625643474981</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>0.1008656321612144</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>6.5728146097571216E-2</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>5.1855085165816155E-2</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="20">
         <v>2.282942479195206E-2</v>
       </c>
     </row>
@@ -18287,22 +18306,22 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>0.20165682532932294</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>0.16708559293478628</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>9.8269602962661323E-2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>6.3582154989145684E-2</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>5.0037377988297521E-2</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="20">
         <v>2.1943651098189226E-2</v>
       </c>
     </row>
@@ -18310,22 +18329,22 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>0.20044252651512373</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>0.16508170498209707</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="20">
         <v>9.5769884369911337E-2</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>6.1547446498459911E-2</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>4.8324004895857309E-2</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>2.1116939452806287E-2</v>
       </c>
     </row>
@@ -18333,22 +18352,22 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>0.19923496184923162</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>0.1631044646610611</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>9.3362577584248513E-2</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>5.9616711973728434E-2</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>4.6707096188247074E-2</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <v>2.034384784460451E-2</v>
       </c>
     </row>
@@ -18356,22 +18375,22 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>0.19803414422535279</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>0.16115373213715883</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="20">
         <v>9.10439012870356E-2</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>5.7783178535545376E-2</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>4.5179482911144014E-2</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="20">
         <v>1.9619562253565655E-2</v>
       </c>
     </row>
@@ -18379,22 +18398,22 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>0.19684008545421375</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>0.1592293561669357</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>8.881019601950367E-2</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>5.6040570784368617E-2</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>4.373462865497646E-2</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="20">
         <v>1.8939810828479314E-2</v>
       </c>
     </row>
@@ -18402,22 +18421,22 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>0.19565279626733462</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>0.15733117461356697</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="20">
         <v>8.6657927081316213E-2</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>5.4383074333270422E-2</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>4.2366568009768818E-2</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="20">
         <v>1.8300791458201265E-2</v>
       </c>
     </row>
@@ -18425,22 +18444,22 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>0.19447228632146968</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>0.15545901496603229</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="20">
         <v>8.4583686145816447E-2</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>5.2805301342099806E-2</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <v>4.1069851134006276E-2</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="20">
         <v>1.7699110410552152E-2</v>
       </c>
     </row>
@@ -18448,22 +18467,22 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>0.19329856420369629</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>0.15361269486000692</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>8.2584191773960688E-2</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>5.1302258141799853E-2</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <v>3.983949389972679E-2</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="20">
         <v>1.7131730153587946E-2</v>
       </c>
     </row>
@@ -18471,22 +18490,22 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>0.19213163743713793</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>0.15179202259868566</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="20">
         <v>8.0656288992637284E-2</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>4.986931497222967E-2</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <v>3.8670933095492119E-2</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="20">
         <v>1.6595924825031735E-2</v>
       </c>
     </row>
@@ -18494,22 +18513,22 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>0.19097151248730354</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>0.14999679767186344</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="20">
         <v>7.8796948086864632E-2</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>4.8502177808948124E-2</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>3.7559986197692116E-2</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="20">
         <v>1.6089242096366859E-2</v>
       </c>
     </row>
@@ -18517,22 +18536,22 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <v>0.18981819476902467</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>0.14822681127170761</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="20">
         <v>7.7003262739623934E-2</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <v>4.7196862220289286E-2</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>3.6502815254633315E-2</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="20">
         <v>1.5609470403423031E-2</v>
       </c>
     </row>
@@ -18540,22 +18559,22 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>0.18867168865397438</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>0.14648184680377035</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="20">
         <v>7.5272447638079221E-2</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>4.594966917264709E-2</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <v>3.5495894464156123E-2</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="20">
         <v>1.5154610696864603E-2</v>
       </c>
     </row>
@@ -18563,22 +18582,22 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>0.18753199747874838</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>0.14476168039190218</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="20">
         <v>7.3601835650846686E-2</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>4.4757162686715729E-2</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>3.4535981062155108E-2</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="20">
         <v>1.4722852012876885E-2</v>
       </c>
     </row>
@@ -18586,22 +18605,22 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>0.18639912355349048</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>0.14306608137583723</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <v>7.1988874667910402E-2</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>4.3616149238526691E-2</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>3.3620089175050251E-2</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="20">
         <v>1.4312550283620495E-2</v>
       </c>
     </row>
@@ -18609,22 +18628,22 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="20">
         <v>0.1852730681710435</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>0.14139481280033572</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <v>7.0431124182790114E-2</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>4.2523658794910948E-2</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <v>3.274546632316952E-2</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="20">
         <v>1.3922209904242521E-2</v>
       </c>
     </row>
@@ -18632,22 +18651,22 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="20">
         <v>0.18415383161660606</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>0.13974763189487274</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="20">
         <v>6.8926251685671264E-2</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <v>4.1476927372259609E-2</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="20">
         <v>3.1909572293685129E-2</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="20">
         <v>1.3550467652764665E-2</v>
       </c>
     </row>
@@ -18655,22 +18674,22 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="20">
         <v>0.18304141317787717</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>0.13812429054297162</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="20">
         <v>6.7472028926383057E-2</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>4.0473381009192497E-2</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="20">
         <v>3.1110060130972665E-2</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="20">
         <v>1.3196078624468146E-2</v>
       </c>
     </row>
@@ -18678,22 +18697,22 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="20">
         <v>0.18193581115566843</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>0.13652453574038145</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="20">
         <v>6.6066328097317314E-2</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <v>3.9510621047226191E-2</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="20">
         <v>3.0344759018962324E-2</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="20">
         <v>1.285790389619694E-2</v>
       </c>
     </row>
@@ -18701,22 +18720,22 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="20">
         <v>0.18083702287496434</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>0.13494811004139692</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="20">
         <v>6.4707117978568679E-2</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>3.8586410618184963E-2</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="20">
         <v>2.9611658854265262E-2</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="20">
         <v>1.2534899680483368E-2</v>
       </c>
     </row>
@@ -18724,22 +18743,22 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>0.17974504469641175</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>0.13339475199271567</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="20">
         <v>6.3392460080671981E-2</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>3.769866224248955E-2</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="20">
         <v>2.8908896330694933E-2</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="20">
         <v>1.2226107766301538E-2</v>
       </c>
     </row>
@@ -18747,22 +18766,22 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>0.17865987202821851</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>0.13186419655431728</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="20">
         <v>6.2120504814250833E-2</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>3.6845426448257515E-2</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="20">
         <v>2.8234742375403785E-2</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="20">
         <v>1.1930647073965173E-2</v>
       </c>
     </row>
@@ -18770,22 +18789,22 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>0.17758149933844142</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>0.13035617550693521</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>6.0889487710597386E-2</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>3.6024881327121713E-2</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="20">
         <v>2.7587590794395253E-2</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="20">
         <v>1.1647706177329492E-2</v>
       </c>
     </row>
@@ -18793,22 +18812,22 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="20">
         <v>0.17650992016764439</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>0.12887041784577613</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="20">
         <v>5.9697725712602359E-2</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>3.5235322948634976E-2</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>2.6965948000820101E-2</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="20">
         <v>1.1376536667931727E-2</v>
       </c>
     </row>
@@ -18816,22 +18835,22 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="20">
         <v>0.17544512714190719</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>0.1274066501602156</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="20">
         <v>5.8543613551482084E-2</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>3.4475156560965399E-2</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="20">
         <v>2.6368423713401021E-2</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="20">
         <v>1.1116447253746997E-2</v>
       </c>
     </row>
@@ -18839,549 +18858,549 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="20">
         <v>0.17438711198616497</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>0.12596459699927418</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="20">
         <v>5.7425620221331478E-2</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>3.3742888511202822E-2</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="20">
         <v>2.5793722524721632E-2</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="20">
         <v>1.0866798500435149E-2</v>
       </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="20">
         <v>0.17333586553785937</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>0.12454398122274365</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="20">
         <v>5.6342285560612118E-2</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>3.3037118823945263E-2</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="20">
         <v>2.5240636250119162E-2</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="20">
         <v>1.0626998135797143E-2</v>
       </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="20">
         <v>0.17229137776088241</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>0.12314452433789641</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="20">
         <v>5.5292216947202572E-2</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>3.2356534381872533E-2</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="20">
         <v>2.4708036977688291E-2</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="20">
         <v>1.0396496849040964E-2</v>
       </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="20">
         <v>0.1712536377597933</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>0.12176594682176896</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="20">
         <v>5.427408611153918E-2</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <v>3.1699902656734828E-2</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="20">
         <v>2.4194870748564995E-2</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="20">
         <v>1.0174784525700548E-2</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <v>0.1702226337942902</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>0.12040796842906384</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="20">
         <v>5.328662607061431E-2</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <v>3.1066065943571461E-2</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="20">
         <v>2.3700151804343154E-2</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="20">
         <v>9.9613868669257769E-3</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="20">
         <v>0.16919835329391714</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>0.11907030848576189</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="20">
         <v>5.2328628184132218E-2</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>3.0453936055041819E-2</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="20">
         <v>2.32229573452876E-2</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="20">
         <v>9.7558623485847797E-3</v>
       </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="20">
         <v>0.16818078287298913</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>0.11775268616858284</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="20">
         <v>5.1398939332906166E-2</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>2.9862489436499905E-2</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="20">
         <v>2.2762422749049875E-2</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="20">
         <v>9.5577994813765606E-3</v>
       </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="20">
         <v>0.16716990834571607</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>0.11645482077047023</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="20">
         <v>5.0496459218588419E-2</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>2.9290762665892631E-2</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="20">
         <v>2.2317737204950845E-2</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="20">
         <v>9.3668143380907336E-3</v>
       </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="20">
         <v>0.16616571474150776</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>0.11517643195231309</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="20">
         <v>4.962013778301734E-2</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>2.8737848305724172E-2</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="20">
         <v>2.1888139723650966E-2</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="20">
         <v>9.1825483184001973E-3</v>
       </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="20">
         <v>0.16516818632044336</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <v>0.1139172399811493</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="20">
         <v>4.8768972744823585E-2</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="20">
         <v>2.8202891077224353E-2</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="20">
         <v>2.1472915486250022E-2</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="20">
         <v>9.0046661252349662E-3</v>
       </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="20">
         <v>0.16417730658888657</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>0.1126769659551223</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="20">
         <v>4.794200725042988E-2</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>2.7685084329502722E-2</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="20">
         <v>2.1071392500607827E-2</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="20">
         <v>8.8328539299501151E-3</v>
       </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="20">
         <v>0.16319305831523087</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>0.11145533201548773</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="20">
         <v>4.7138327636192801E-2</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="20">
         <v>2.7183666778883821E-2</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="20">
         <v>2.0682938536011775E-2</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="20">
         <v>8.6668177062406027E-3</v>
       </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="20">
         <v>0.16221542354575708</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <v>0.11025206154598874</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="20">
         <v>4.6357061298142523E-2</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="20">
         <v>2.6697919495817551E-2</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="20">
         <v>2.0306958310280281E-2</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="20">
         <v>8.5062817151334395E-3</v>
       </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="20">
         <v>0.16124438362058813</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>0.10906687935993445</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="20">
         <v>4.5597374665573884E-2</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="20">
         <v>2.6227163118761644E-2</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="20">
         <v>1.9942890906030072E-2</v>
       </c>
-      <c r="G70" s="21">
+      <c r="G70" s="20">
         <v>8.3509871254548763E-3</v>
       </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="20">
         <v>0.16027991918972423</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>0.10789951187533252</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="20">
         <v>4.4858471274603018E-2</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E71" s="20">
         <v>2.5770755276254796E-2</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="20">
         <v>1.9590207395185799E-2</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="20">
         <v>8.2006907559707149E-3</v>
       </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="20">
         <v>0.15932201022914333</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>0.10674968727843932</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="20">
         <v>4.4139589937727437E-2</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="20">
         <v>2.5328088200056061E-2</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="20">
         <v>1.9248408652904662E-2</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="20">
         <v>8.0551639269702911E-3</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="20">
         <v>0.15837063605695165</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>0.10561713567609859</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="20">
         <v>4.3440003005395855E-2</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="20">
         <v>2.4898586513732623E-2</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="20">
         <v>1.8917023343958769E-2</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="20">
         <v>7.914191410438854E-3</v>
       </c>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="20">
         <v>0.15742577534956947</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>0.10450158923724949</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="20">
         <v>4.275901471560356E-2</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <v>2.4481705182447727E-2</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="20">
         <v>1.8595606066286151E-2</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="20">
         <v>7.7775704691675704E-3</v>
       </c>
     </row>
@@ -19389,22 +19408,22 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="20">
         <v>0.15648740615793869</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>0.10340278232398761</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="20">
         <v>4.2095959627569013E-2</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="20">
         <v>2.4076927610943898E-2</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="20">
         <v>1.828373563791353E-2</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="20">
         <v>7.6451099762078322E-3</v>
       </c>
     </row>
@@ -19412,22 +19431,22 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="20">
         <v>0.15555550592373665</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>0.10232045161256717</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="20">
         <v>4.1450201135613943E-2</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="20">
         <v>2.3683763877848232E-2</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="20">
         <v>1.7981013514787668E-2</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G76" s="20">
         <v>7.5166296070046639E-3</v>
       </c>
     </row>
